--- a/medicine/Enfance/Ruth_Brown_(auteure)/Ruth_Brown_(auteure).xlsx
+++ b/medicine/Enfance/Ruth_Brown_(auteure)/Ruth_Brown_(auteure).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruth Brown (née en 1941) est une auteure et illustratrice britannique en littérature jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née dans le Devon, Ruth Brown a bénéficié d'une formation au Royal College of Art à partir de 1961. Elle y rencontre puis épouse l'illustrateur Ken Brown. 
-Elle a d'abord travaillé pour la BBC autour d'émissions de télévision pour le jeune public. Puis elle a écrit et illustré ses premiers livres pour enfants. En 2002 , elle a obtenu le Prix Sorcières, catégorie tout-petits, pour Dix petites graines, chez Gallimard Jeunesse[1],[2].
+Elle a d'abord travaillé pour la BBC autour d'émissions de télévision pour le jeune public. Puis elle a écrit et illustré ses premiers livres pour enfants. En 2002 , elle a obtenu le Prix Sorcières, catégorie tout-petits, pour Dix petites graines, chez Gallimard Jeunesse,.
 </t>
         </is>
       </c>
